--- a/SP_Sklad/TempLate/ProductionPlanning(54).xlsx
+++ b/SP_Sklad/TempLate/ProductionPlanning(54).xlsx
@@ -813,9 +813,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -953,7 +951,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I9" s="19" t="e">
-        <f>MatInDet_OrderedAmount1</f>
+        <f>MatInDet_OrderedAmount</f>
         <v>#NAME?</v>
       </c>
     </row>
